--- a/posesiones/1381247.xlsx
+++ b/posesiones/1381247.xlsx
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>25</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>6</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>14</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2510,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>18</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>9</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2816,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>22</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>20</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>35</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>13</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3407,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>9</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R41">
         <v>18</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R43">
         <v>11</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>20</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>17</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>11</v>
@@ -4357,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>19</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>8</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>9</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R63">
         <v>8</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5286,7 +5286,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R71">
         <v>25</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5486,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>13</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R78">
         <v>19</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>11</v>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>18</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>21</v>
@@ -6048,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6095,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6333,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R96">
         <v>25</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R98">
         <v>19</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>26</v>
@@ -6877,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R103">
         <v>20</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7077,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R107">
         <v>13</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7506,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R116">
         <v>25</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R119">
         <v>4</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R126">
         <v>0</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R129">
         <v>10</v>
@@ -8188,10 +8188,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8232,10 +8232,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8285,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R132">
         <v>19</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R134">
         <v>19</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8488,7 +8488,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R136">
         <v>9</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>20</v>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8782,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>22</v>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9070,7 +9070,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R150">
         <v>24</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R152">
         <v>15</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9367,7 +9367,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R154">
         <v>17</v>
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9470,7 +9470,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R156">
         <v>7</v>
@@ -9520,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9570,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R158">
         <v>4</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9670,7 +9670,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R160">
         <v>23</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9770,7 +9770,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10008,7 +10008,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R167">
         <v>5</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R172">
         <v>6</v>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R173">
         <v>17</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10543,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10734,7 +10734,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R182">
         <v>27</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R186">
         <v>19</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R192">
         <v>17</v>
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R193">
         <v>17</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R198">
         <v>2</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11607,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11654,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11704,7 +11704,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R202">
         <v>17</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11807,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R204">
         <v>19</v>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11910,7 +11910,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R206">
         <v>19</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12054,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12101,7 +12101,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12148,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R213">
         <v>13</v>
@@ -12301,7 +12301,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12586,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R220">
         <v>0</v>
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13018,7 +13018,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R229">
         <v>30</v>
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R230">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13174,7 +13174,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R232">
         <v>18</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13271,7 +13271,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R234">
         <v>31</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13368,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13512,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R239">
         <v>14</v>
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R242">
         <v>28</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R244">
         <v>10</v>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R246">
         <v>7</v>
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R248">
         <v>22</v>
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R250">
         <v>9</v>
@@ -14118,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14168,7 +14168,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R252">
         <v>17</v>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R254">
         <v>21</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14371,7 +14371,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14653,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14703,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R263">
         <v>16</v>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14894,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R268">
         <v>5</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15085,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15226,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15273,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15320,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R278">
         <v>14</v>
@@ -15461,10 +15461,10 @@
         <v>1</v>
       </c>
       <c r="P279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q279">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15605,7 +15605,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15652,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15793,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15975,10 +15975,10 @@
         <v>1</v>
       </c>
       <c r="P290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q290">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16028,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R291">
         <v>12</v>
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16225,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16325,7 +16325,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R297">
         <v>39</v>
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16428,7 +16428,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R299">
         <v>12</v>
@@ -16478,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R302">
         <v>24</v>
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16725,7 +16725,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R305">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16828,7 +16828,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R307">
         <v>12</v>
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16925,7 +16925,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17078,7 +17078,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R312">
         <v>10</v>
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17178,7 +17178,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R314">
         <v>3</v>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17319,7 +17319,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17369,7 +17369,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R318">
         <v>16</v>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R320">
         <v>9</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17572,7 +17572,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R322">
         <v>18</v>
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17672,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R324">
         <v>15</v>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17775,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R326">
         <v>19</v>
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17875,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R328">
         <v>23</v>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18022,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18116,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18163,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18260,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R336">
         <v>17</v>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18498,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18548,7 +18548,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R342">
         <v>17</v>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18789,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R347">
         <v>11</v>
@@ -18839,7 +18839,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18936,7 +18936,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R350">
         <v>21</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19036,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R352">
         <v>28</v>
@@ -19086,7 +19086,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19180,7 +19180,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R355">
         <v>4</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19277,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19324,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19371,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19468,7 +19468,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R361">
         <v>16</v>
@@ -19521,7 +19521,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R362">
         <v>14</v>
@@ -19574,7 +19574,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R363">
         <v>8</v>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19671,7 +19671,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19721,7 +19721,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19771,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R367">
         <v>19</v>
@@ -19821,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19871,7 +19871,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R369">
         <v>7</v>
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19971,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R371">
         <v>28</v>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20074,7 +20074,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R373">
         <v>12</v>
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20171,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R376">
         <v>25</v>
@@ -20271,7 +20271,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20321,7 +20321,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R378">
         <v>16</v>
@@ -20371,7 +20371,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20515,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20562,7 +20562,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20612,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R384">
         <v>17</v>
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20712,7 +20712,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R386">
         <v>19</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20809,7 +20809,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20859,7 +20859,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R390">
         <v>21</v>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21012,7 +21012,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R392">
         <v>24</v>
@@ -21062,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21109,7 +21109,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21156,7 +21156,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21347,7 +21347,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R399">
         <v>17</v>
@@ -21400,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21450,7 +21450,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R401">
         <v>11</v>
@@ -21503,7 +21503,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R402">
         <v>17</v>
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21694,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21741,7 +21741,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21932,7 +21932,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R411">
         <v>6</v>
@@ -21976,10 +21976,10 @@
         <v>1</v>
       </c>
       <c r="P412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q412">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22026,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22167,7 +22167,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22214,7 +22214,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22261,7 +22261,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22355,7 +22355,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22449,7 +22449,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22490,10 +22490,10 @@
         <v>1</v>
       </c>
       <c r="P423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q423">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22543,7 +22543,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R424">
         <v>16</v>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22643,7 +22643,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R426">
         <v>26</v>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22743,7 +22743,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R428">
         <v>13</v>
@@ -22793,7 +22793,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22890,7 +22890,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22940,7 +22940,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R432">
         <v>22</v>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23037,7 +23037,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23087,7 +23087,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R435">
         <v>0</v>
@@ -23140,7 +23140,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R436">
         <v>20</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23287,7 +23287,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23334,7 +23334,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23478,7 +23478,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R443">
         <v>28</v>
@@ -23531,7 +23531,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23581,7 +23581,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R445">
         <v>19</v>
@@ -23634,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23681,7 +23681,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23728,7 +23728,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23775,7 +23775,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23919,7 +23919,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R452">
         <v>7</v>
@@ -23972,7 +23972,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R453">
         <v>20</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24072,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24122,7 +24122,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R456">
         <v>13</v>
@@ -24175,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R457">
         <v>13</v>
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24278,7 +24278,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R459">
         <v>5</v>
@@ -24328,7 +24328,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R461">
         <v>11</v>
@@ -24431,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24478,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24531,7 +24531,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R464">
         <v>5</v>
@@ -24581,7 +24581,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24631,7 +24631,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R466">
         <v>23</v>
@@ -24684,7 +24684,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R467">
         <v>18</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24784,7 +24784,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R469">
         <v>27</v>
@@ -24837,7 +24837,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24887,7 +24887,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R471">
         <v>11</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24990,7 +24990,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R473">
         <v>6</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25137,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R476">
         <v>21</v>
@@ -25187,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25422,7 +25422,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25469,7 +25469,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R483">
         <v>44</v>
@@ -25522,7 +25522,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R484">
         <v>14</v>
@@ -25575,7 +25575,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25625,7 +25625,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R486">
         <v>4</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25722,7 +25722,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25816,7 +25816,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25863,7 +25863,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25960,7 +25960,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R493">
         <v>16</v>
@@ -26013,7 +26013,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R494">
         <v>22</v>
@@ -26066,7 +26066,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R495">
         <v>17</v>
@@ -26116,7 +26116,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26210,7 +26210,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26307,7 +26307,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26354,7 +26354,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26454,7 +26454,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26501,7 +26501,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26548,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26598,7 +26598,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R506">
         <v>35</v>
@@ -26651,7 +26651,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26745,7 +26745,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26842,7 +26842,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R511">
         <v>12</v>
@@ -26892,7 +26892,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27036,7 +27036,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27083,7 +27083,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27130,7 +27130,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27180,7 +27180,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27230,7 +27230,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R519">
         <v>41</v>
@@ -27277,7 +27277,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27324,7 +27324,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27374,7 +27374,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27468,7 +27468,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27565,7 +27565,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R526">
         <v>8</v>
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27662,7 +27662,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27709,7 +27709,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R529">
         <v>26</v>
@@ -27759,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27806,7 +27806,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27953,7 +27953,7 @@
         <v>1</v>
       </c>
       <c r="Q534">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R534">
         <v>15</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="536" spans="1:18">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28094,7 +28094,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28188,7 +28188,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28282,7 +28282,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28379,7 +28379,7 @@
         <v>1</v>
       </c>
       <c r="Q543">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R543">
         <v>2</v>
@@ -28432,7 +28432,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28482,7 +28482,7 @@
         <v>1</v>
       </c>
       <c r="Q545">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R545">
         <v>10</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28623,7 +28623,7 @@
         <v>1</v>
       </c>
       <c r="Q548">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R548">
         <v>0</v>
@@ -28676,7 +28676,7 @@
         <v>1</v>
       </c>
       <c r="Q549">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R549">
         <v>0</v>
@@ -28726,7 +28726,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28823,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="Q552">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R552">
         <v>8</v>
@@ -28873,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -28920,7 +28920,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -28964,7 +28964,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="Q556">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="557" spans="1:18">
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="Q557">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29108,7 +29108,7 @@
         <v>1</v>
       </c>
       <c r="Q558">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R558">
         <v>0</v>
@@ -29152,10 +29152,10 @@
         <v>1</v>
       </c>
       <c r="P559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q559">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="560" spans="1:18">
@@ -29196,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="Q560">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
